--- a/va_facility_data_2025-02-20/Pocahontas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pocahontas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pocahontas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pocahontas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rce1a879a330d477aba8bcf86af9db861"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rec5c094c98fc41da8851e626d8b4cbdd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7b1a2d1b54bd40e1a5c4c3488c344139"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8d62e3e1362a421ca8b264e6094981ca"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6e2091221501406c8b1ca51adc0d499f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf28fdf1269ca40c79b13eb44e339722b"/>
   </x:sheets>
 </x:workbook>
 </file>
